--- a/DIC/Lab2/Task5/N=2/task5_N2.xlsx
+++ b/DIC/Lab2/Task5/N=2/task5_N2.xlsx
@@ -482,25 +482,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.017e-11</v>
+        <v>2.029e-11</v>
       </c>
       <c r="B2" t="n">
-        <v>1.805e-11</v>
+        <v>1.816e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.911e-11</v>
+        <v>1.923e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.852e-11</v>
+        <v>2.862e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>2.613e-11</v>
+        <v>2.466e-11</v>
       </c>
       <c r="F2" t="n">
-        <v>2.733e-11</v>
+        <v>2.664e-11</v>
       </c>
       <c r="G2" t="n">
-        <v>4.643e-11</v>
+        <v>4.586e-11</v>
       </c>
       <c r="H2" t="n">
         <v>25</v>
